--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.7377451371281</v>
+        <v>0.04271066666666667</v>
       </c>
       <c r="H2">
-        <v>4.7377451371281</v>
+        <v>0.128132</v>
       </c>
       <c r="I2">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="J2">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>7.604902240160537</v>
+        <v>0.07470313424400002</v>
       </c>
       <c r="R2">
-        <v>7.604902240160537</v>
+        <v>0.672328208196</v>
       </c>
       <c r="S2">
-        <v>4.048405509376715E-05</v>
+        <v>3.691380197627791E-07</v>
       </c>
       <c r="T2">
-        <v>4.048405509376715E-05</v>
+        <v>3.691380197627791E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.7377451371281</v>
+        <v>0.04271066666666667</v>
       </c>
       <c r="H3">
-        <v>4.7377451371281</v>
+        <v>0.128132</v>
       </c>
       <c r="I3">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="J3">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>674.8230860657409</v>
+        <v>6.109143839902223</v>
       </c>
       <c r="R3">
-        <v>674.8230860657409</v>
+        <v>54.98229455912</v>
       </c>
       <c r="S3">
-        <v>0.003592363732246309</v>
+        <v>3.018771946223411E-05</v>
       </c>
       <c r="T3">
-        <v>0.003592363732246309</v>
+        <v>3.018771946223411E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.7377451371281</v>
+        <v>0.04271066666666667</v>
       </c>
       <c r="H4">
-        <v>4.7377451371281</v>
+        <v>0.128132</v>
       </c>
       <c r="I4">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="J4">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>576.178858119374</v>
+        <v>5.672182057061334</v>
       </c>
       <c r="R4">
-        <v>576.178858119374</v>
+        <v>51.049638513552</v>
       </c>
       <c r="S4">
-        <v>0.003067239512006689</v>
+        <v>2.802851678804572E-05</v>
       </c>
       <c r="T4">
-        <v>0.003067239512006689</v>
+        <v>2.802851678804572E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.7377451371281</v>
+        <v>0.04271066666666667</v>
       </c>
       <c r="H5">
-        <v>4.7377451371281</v>
+        <v>0.128132</v>
       </c>
       <c r="I5">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="J5">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>591.8111121168354</v>
+        <v>5.369037633429333</v>
       </c>
       <c r="R5">
-        <v>591.8111121168354</v>
+        <v>48.321338700864</v>
       </c>
       <c r="S5">
-        <v>0.003150456496536871</v>
+        <v>2.653055912704392E-05</v>
       </c>
       <c r="T5">
-        <v>0.003150456496536871</v>
+        <v>2.653055912704392E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.7377451371281</v>
+        <v>0.04271066666666667</v>
       </c>
       <c r="H6">
-        <v>4.7377451371281</v>
+        <v>0.128132</v>
       </c>
       <c r="I6">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="J6">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>249.5232571191209</v>
+        <v>2.288714356304444</v>
       </c>
       <c r="R6">
-        <v>249.5232571191209</v>
+        <v>20.59842920674</v>
       </c>
       <c r="S6">
-        <v>0.00132831599531166</v>
+        <v>1.130945165606251E-05</v>
       </c>
       <c r="T6">
-        <v>0.00132831599531166</v>
+        <v>1.130945165606252E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>4.7377451371281</v>
+        <v>0.04271066666666667</v>
       </c>
       <c r="H7">
-        <v>4.7377451371281</v>
+        <v>0.128132</v>
       </c>
       <c r="I7">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="J7">
-        <v>0.01172576828023657</v>
+        <v>0.0001012801185864889</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>102.7363880381907</v>
+        <v>0.9824612785564444</v>
       </c>
       <c r="R7">
-        <v>102.7363880381907</v>
+        <v>8.842151507007999</v>
       </c>
       <c r="S7">
-        <v>0.000546908489041268</v>
+        <v>4.854733533339832E-06</v>
       </c>
       <c r="T7">
-        <v>0.000546908489041268</v>
+        <v>4.854733533339833E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.34689147069</v>
+        <v>4.781812333333333</v>
       </c>
       <c r="H8">
-        <v>1.34689147069</v>
+        <v>14.345437</v>
       </c>
       <c r="I8">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152003</v>
       </c>
       <c r="J8">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152004</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>2.161994296069824</v>
+        <v>8.363633643429001</v>
       </c>
       <c r="R8">
-        <v>2.161994296069824</v>
+        <v>75.272702790861</v>
       </c>
       <c r="S8">
-        <v>1.15091941264262E-05</v>
+        <v>4.132805393509585E-05</v>
       </c>
       <c r="T8">
-        <v>1.15091941264262E-05</v>
+        <v>4.132805393509586E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.34689147069</v>
+        <v>4.781812333333333</v>
       </c>
       <c r="H9">
-        <v>1.34689147069</v>
+        <v>14.345437</v>
       </c>
       <c r="I9">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152003</v>
       </c>
       <c r="J9">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152004</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>191.8451568286787</v>
+        <v>683.9691730344912</v>
       </c>
       <c r="R9">
-        <v>191.8451568286787</v>
+        <v>6155.72255731042</v>
       </c>
       <c r="S9">
-        <v>0.001021271497417786</v>
+        <v>0.003379764834070749</v>
       </c>
       <c r="T9">
-        <v>0.001021271497417786</v>
+        <v>0.00337976483407075</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.34689147069</v>
+        <v>4.781812333333333</v>
       </c>
       <c r="H10">
-        <v>1.34689147069</v>
+        <v>14.345437</v>
       </c>
       <c r="I10">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152003</v>
       </c>
       <c r="J10">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152004</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>163.8016328719848</v>
+        <v>635.0476879476146</v>
       </c>
       <c r="R10">
-        <v>163.8016328719848</v>
+        <v>5715.429191528532</v>
       </c>
       <c r="S10">
-        <v>0.0008719841649796761</v>
+        <v>0.003138024238959449</v>
       </c>
       <c r="T10">
-        <v>0.0008719841649796761</v>
+        <v>0.00313802423895945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.34689147069</v>
+        <v>4.781812333333333</v>
       </c>
       <c r="H11">
-        <v>1.34689147069</v>
+        <v>14.345437</v>
       </c>
       <c r="I11">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152003</v>
       </c>
       <c r="J11">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152004</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>168.2457194506063</v>
+        <v>601.1081628398026</v>
       </c>
       <c r="R11">
-        <v>168.2457194506063</v>
+        <v>5409.973465558223</v>
       </c>
       <c r="S11">
-        <v>0.0008956418847252735</v>
+        <v>0.002970315491304151</v>
       </c>
       <c r="T11">
-        <v>0.0008956418847252735</v>
+        <v>0.002970315491304152</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.34689147069</v>
+        <v>4.781812333333333</v>
       </c>
       <c r="H12">
-        <v>1.34689147069</v>
+        <v>14.345437</v>
       </c>
       <c r="I12">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152003</v>
       </c>
       <c r="J12">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152004</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>70.9368564633798</v>
+        <v>256.2404989336072</v>
       </c>
       <c r="R12">
-        <v>70.9368564633798</v>
+        <v>2306.164490402465</v>
       </c>
       <c r="S12">
-        <v>0.0003776263671183624</v>
+        <v>0.001266186637503437</v>
       </c>
       <c r="T12">
-        <v>0.0003776263671183624</v>
+        <v>0.001266186637503438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.34689147069</v>
+        <v>4.781812333333333</v>
       </c>
       <c r="H13">
-        <v>1.34689147069</v>
+        <v>14.345437</v>
       </c>
       <c r="I13">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152003</v>
       </c>
       <c r="J13">
-        <v>0.003333513480953409</v>
+        <v>0.01133914682152004</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>29.20688234023843</v>
+        <v>109.9946646932142</v>
       </c>
       <c r="R13">
-        <v>29.20688234023843</v>
+        <v>989.9519822389279</v>
       </c>
       <c r="S13">
-        <v>0.0001554803725858844</v>
+        <v>0.000543527565747151</v>
       </c>
       <c r="T13">
-        <v>0.0001554803725858844</v>
+        <v>0.0005435275657471512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>397.54360542392</v>
+        <v>4.763626</v>
       </c>
       <c r="H14">
-        <v>397.54360542392</v>
+        <v>14.290878</v>
       </c>
       <c r="I14">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527803</v>
       </c>
       <c r="J14">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>638.1264014726003</v>
+        <v>8.331824818926002</v>
       </c>
       <c r="R14">
-        <v>638.1264014726003</v>
+        <v>74.98642337033402</v>
       </c>
       <c r="S14">
-        <v>0.003397012029632451</v>
+        <v>4.117087383004608E-05</v>
       </c>
       <c r="T14">
-        <v>0.003397012029632451</v>
+        <v>4.11708738300461E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>397.54360542392</v>
+        <v>4.763626</v>
       </c>
       <c r="H15">
-        <v>397.54360542392</v>
+        <v>14.290878</v>
       </c>
       <c r="I15">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527803</v>
       </c>
       <c r="J15">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527804</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>56624.32125263924</v>
+        <v>681.3678807830535</v>
       </c>
       <c r="R15">
-        <v>56624.32125263924</v>
+        <v>6132.310927047481</v>
       </c>
       <c r="S15">
-        <v>0.301434794142814</v>
+        <v>0.003366910810203644</v>
       </c>
       <c r="T15">
-        <v>0.301434794142814</v>
+        <v>0.003366910810203645</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>397.54360542392</v>
+        <v>4.763626</v>
       </c>
       <c r="H16">
-        <v>397.54360542392</v>
+        <v>14.290878</v>
       </c>
       <c r="I16">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527803</v>
       </c>
       <c r="J16">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527804</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>48347.09634986005</v>
+        <v>632.6324553683121</v>
       </c>
       <c r="R16">
-        <v>48347.09634986005</v>
+        <v>5693.692098314808</v>
       </c>
       <c r="S16">
-        <v>0.2573716861099434</v>
+        <v>0.003126089610237202</v>
       </c>
       <c r="T16">
-        <v>0.2573716861099434</v>
+        <v>0.003126089610237204</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>397.54360542392</v>
+        <v>4.763626</v>
       </c>
       <c r="H17">
-        <v>397.54360542392</v>
+        <v>14.290878</v>
       </c>
       <c r="I17">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527803</v>
       </c>
       <c r="J17">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527804</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>49658.79683926636</v>
+        <v>598.822010089184</v>
       </c>
       <c r="R17">
-        <v>49658.79683926636</v>
+        <v>5389.398090802657</v>
       </c>
       <c r="S17">
-        <v>0.2643544129357027</v>
+        <v>0.002959018697564787</v>
       </c>
       <c r="T17">
-        <v>0.2643544129357027</v>
+        <v>0.002959018697564787</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>397.54360542392</v>
+        <v>4.763626</v>
       </c>
       <c r="H18">
-        <v>397.54360542392</v>
+        <v>14.290878</v>
       </c>
       <c r="I18">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527803</v>
       </c>
       <c r="J18">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527804</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>20937.46548223686</v>
+        <v>255.2659573158567</v>
       </c>
       <c r="R18">
-        <v>20937.46548223686</v>
+        <v>2297.39361584271</v>
       </c>
       <c r="S18">
-        <v>0.111458830020257</v>
+        <v>0.001261371038176937</v>
       </c>
       <c r="T18">
-        <v>0.111458830020257</v>
+        <v>0.001261371038176938</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>397.54360542392</v>
+        <v>4.763626</v>
       </c>
       <c r="H19">
-        <v>397.54360542392</v>
+        <v>14.290878</v>
       </c>
       <c r="I19">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527803</v>
       </c>
       <c r="J19">
-        <v>0.9839077585579806</v>
+        <v>0.01129602143527804</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>8620.597547315667</v>
+        <v>109.5763296567147</v>
       </c>
       <c r="R19">
-        <v>8620.597547315667</v>
+        <v>986.1869669104321</v>
       </c>
       <c r="S19">
-        <v>0.04589102331963102</v>
+        <v>0.0005414604052654175</v>
       </c>
       <c r="T19">
-        <v>0.04589102331963102</v>
+        <v>0.0005414604052654177</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.417362819027186</v>
+        <v>0.334376</v>
       </c>
       <c r="H20">
-        <v>0.417362819027186</v>
+        <v>1.003128</v>
       </c>
       <c r="I20">
-        <v>0.001032959680829444</v>
+        <v>0.0007929082726986812</v>
       </c>
       <c r="J20">
-        <v>0.001032959680829444</v>
+        <v>0.0007929082726986813</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>0.6699396749955958</v>
+        <v>0.5848406771760001</v>
       </c>
       <c r="R20">
-        <v>0.6699396749955958</v>
+        <v>5.263566094584001</v>
       </c>
       <c r="S20">
-        <v>3.566367305656466E-06</v>
+        <v>2.889931348051986E-06</v>
       </c>
       <c r="T20">
-        <v>3.566367305656466E-06</v>
+        <v>2.889931348051986E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.417362819027186</v>
+        <v>0.334376</v>
       </c>
       <c r="H21">
-        <v>0.417362819027186</v>
+        <v>1.003128</v>
       </c>
       <c r="I21">
-        <v>0.001032959680829444</v>
+        <v>0.0007929082726986812</v>
       </c>
       <c r="J21">
-        <v>0.001032959680829444</v>
+        <v>0.0007929082726986813</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>59.44728080408091</v>
+        <v>47.82765618138667</v>
       </c>
       <c r="R21">
-        <v>59.44728080408091</v>
+        <v>430.44890563248</v>
       </c>
       <c r="S21">
-        <v>0.0003164625810096218</v>
+        <v>0.0002363355496574781</v>
       </c>
       <c r="T21">
-        <v>0.0003164625810096218</v>
+        <v>0.0002363355496574781</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.417362819027186</v>
+        <v>0.334376</v>
       </c>
       <c r="H22">
-        <v>0.417362819027186</v>
+        <v>1.003128</v>
       </c>
       <c r="I22">
-        <v>0.001032959680829444</v>
+        <v>0.0007929082726986812</v>
       </c>
       <c r="J22">
-        <v>0.001032959680829444</v>
+        <v>0.0007929082726986813</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>50.75740157570763</v>
+        <v>44.406741817312</v>
       </c>
       <c r="R22">
-        <v>50.75740157570763</v>
+        <v>399.6606763558081</v>
       </c>
       <c r="S22">
-        <v>0.0002702027425094203</v>
+        <v>0.0002194314456073325</v>
       </c>
       <c r="T22">
-        <v>0.0002702027425094203</v>
+        <v>0.0002194314456073325</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.417362819027186</v>
+        <v>0.334376</v>
       </c>
       <c r="H23">
-        <v>0.417362819027186</v>
+        <v>1.003128</v>
       </c>
       <c r="I23">
-        <v>0.001032959680829444</v>
+        <v>0.0007929082726986812</v>
       </c>
       <c r="J23">
-        <v>0.001032959680829444</v>
+        <v>0.0007929082726986813</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>52.13449582778138</v>
+        <v>42.033465357184</v>
       </c>
       <c r="R23">
-        <v>52.13449582778138</v>
+        <v>378.301188214656</v>
       </c>
       <c r="S23">
-        <v>0.0002775335875104057</v>
+        <v>0.000207704138825534</v>
       </c>
       <c r="T23">
-        <v>0.0002775335875104057</v>
+        <v>0.000207704138825534</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.417362819027186</v>
+        <v>0.334376</v>
       </c>
       <c r="H24">
-        <v>0.417362819027186</v>
+        <v>1.003128</v>
       </c>
       <c r="I24">
-        <v>0.001032959680829444</v>
+        <v>0.0007929082726986812</v>
       </c>
       <c r="J24">
-        <v>0.001032959680829444</v>
+        <v>0.0007929082726986813</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>21.98128582053903</v>
+        <v>17.91803339377333</v>
       </c>
       <c r="R24">
-        <v>21.98128582053903</v>
+        <v>161.26230054396</v>
       </c>
       <c r="S24">
-        <v>0.0001170155194752062</v>
+        <v>8.854015874912339E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001170155194752062</v>
+        <v>8.85401587491234E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.334376</v>
+      </c>
+      <c r="H25">
+        <v>1.003128</v>
+      </c>
+      <c r="I25">
+        <v>0.0007929082726986812</v>
+      </c>
+      <c r="J25">
+        <v>0.0007929082726986813</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N25">
+        <v>69.008144</v>
+      </c>
+      <c r="O25">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P25">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q25">
+        <v>7.691555719381333</v>
+      </c>
+      <c r="R25">
+        <v>69.224001474432</v>
+      </c>
+      <c r="S25">
+        <v>3.800704851116129E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.800704851116131E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>411.212972</v>
+      </c>
+      <c r="H26">
+        <v>1233.638916</v>
+      </c>
+      <c r="I26">
+        <v>0.9751123505867978</v>
+      </c>
+      <c r="J26">
+        <v>0.9751123505867979</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.749051</v>
+      </c>
+      <c r="N26">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P26">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q26">
+        <v>719.2324598895721</v>
+      </c>
+      <c r="R26">
+        <v>6473.092139006148</v>
+      </c>
+      <c r="S26">
+        <v>0.00355401481717714</v>
+      </c>
+      <c r="T26">
+        <v>0.00355401481717714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>411.212972</v>
+      </c>
+      <c r="H27">
+        <v>1233.638916</v>
+      </c>
+      <c r="I27">
+        <v>0.9751123505867978</v>
+      </c>
+      <c r="J27">
+        <v>0.9751123505867979</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N27">
+        <v>429.10666</v>
+      </c>
+      <c r="O27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q27">
+        <v>58818.07498786451</v>
+      </c>
+      <c r="R27">
+        <v>529362.6748907806</v>
+      </c>
+      <c r="S27">
+        <v>0.290643598116806</v>
+      </c>
+      <c r="T27">
+        <v>0.2906435981168061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>411.212972</v>
+      </c>
+      <c r="H28">
+        <v>1233.638916</v>
+      </c>
+      <c r="I28">
+        <v>0.9751123505867978</v>
+      </c>
+      <c r="J28">
+        <v>0.9751123505867979</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>132.804812</v>
+      </c>
+      <c r="N28">
+        <v>398.414436</v>
+      </c>
+      <c r="O28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q28">
+        <v>54611.06143842126</v>
+      </c>
+      <c r="R28">
+        <v>491499.5529457913</v>
+      </c>
+      <c r="S28">
+        <v>0.2698550640549786</v>
+      </c>
+      <c r="T28">
+        <v>0.2698550640549787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>411.212972</v>
+      </c>
+      <c r="H29">
+        <v>1233.638916</v>
+      </c>
+      <c r="I29">
+        <v>0.9751123505867978</v>
+      </c>
+      <c r="J29">
+        <v>0.9751123505867979</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>125.707184</v>
+      </c>
+      <c r="N29">
+        <v>377.121552</v>
+      </c>
+      <c r="O29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q29">
+        <v>51692.42473439084</v>
+      </c>
+      <c r="R29">
+        <v>465231.8226095176</v>
+      </c>
+      <c r="S29">
+        <v>0.255432914512849</v>
+      </c>
+      <c r="T29">
+        <v>0.255432914512849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>411.212972</v>
+      </c>
+      <c r="H30">
+        <v>1233.638916</v>
+      </c>
+      <c r="I30">
+        <v>0.9751123505867978</v>
+      </c>
+      <c r="J30">
+        <v>0.9751123505867979</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N30">
+        <v>160.759445</v>
+      </c>
+      <c r="O30">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P30">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q30">
+        <v>22035.45638517351</v>
+      </c>
+      <c r="R30">
+        <v>198319.1074665616</v>
+      </c>
+      <c r="S30">
+        <v>0.1088859900847514</v>
+      </c>
+      <c r="T30">
+        <v>0.1088859900847514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>411.212972</v>
+      </c>
+      <c r="H31">
+        <v>1233.638916</v>
+      </c>
+      <c r="I31">
+        <v>0.9751123505867978</v>
+      </c>
+      <c r="J31">
+        <v>0.9751123505867979</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N31">
+        <v>69.008144</v>
+      </c>
+      <c r="O31">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P31">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q31">
+        <v>9459.014662147989</v>
+      </c>
+      <c r="R31">
+        <v>85131.13195933189</v>
+      </c>
+      <c r="S31">
+        <v>0.04674076900023569</v>
+      </c>
+      <c r="T31">
+        <v>0.04674076900023571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.5728033333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.71841</v>
+      </c>
+      <c r="I32">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="J32">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.749051</v>
+      </c>
+      <c r="N32">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P32">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q32">
+        <v>1.00186224297</v>
+      </c>
+      <c r="R32">
+        <v>9.016760186730002</v>
+      </c>
+      <c r="S32">
+        <v>4.950601446481418E-06</v>
+      </c>
+      <c r="T32">
+        <v>4.95060144648142E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.5728033333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.71841</v>
+      </c>
+      <c r="I33">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="J33">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N33">
+        <v>429.10666</v>
+      </c>
+      <c r="O33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q33">
+        <v>81.93124173451112</v>
+      </c>
+      <c r="R33">
+        <v>737.3811756106001</v>
+      </c>
+      <c r="S33">
+        <v>0.000404854985492287</v>
+      </c>
+      <c r="T33">
+        <v>0.0004048549854922871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5728033333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.71841</v>
+      </c>
+      <c r="I34">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="J34">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>132.804812</v>
+      </c>
+      <c r="N34">
+        <v>398.414436</v>
+      </c>
+      <c r="O34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q34">
+        <v>76.07103899630667</v>
+      </c>
+      <c r="R34">
+        <v>684.63935096676</v>
+      </c>
+      <c r="S34">
+        <v>0.0003758973834307248</v>
+      </c>
+      <c r="T34">
+        <v>0.000375897383430725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.417362819027186</v>
-      </c>
-      <c r="H25">
-        <v>0.417362819027186</v>
-      </c>
-      <c r="I25">
-        <v>0.001032959680829444</v>
-      </c>
-      <c r="J25">
-        <v>0.001032959680829444</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="N25">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="O25">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="P25">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="Q25">
-        <v>9.050370437250221</v>
-      </c>
-      <c r="R25">
-        <v>9.050370437250221</v>
-      </c>
-      <c r="S25">
-        <v>4.817888301913332E-05</v>
-      </c>
-      <c r="T25">
-        <v>4.817888301913332E-05</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.5728033333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.71841</v>
+      </c>
+      <c r="I35">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="J35">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>125.707184</v>
+      </c>
+      <c r="N35">
+        <v>377.121552</v>
+      </c>
+      <c r="O35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q35">
+        <v>72.00549401914667</v>
+      </c>
+      <c r="R35">
+        <v>648.04944617232</v>
+      </c>
+      <c r="S35">
+        <v>0.0003558079020814749</v>
+      </c>
+      <c r="T35">
+        <v>0.000355807902081475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.5728033333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.71841</v>
+      </c>
+      <c r="I36">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="J36">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N36">
+        <v>160.759445</v>
+      </c>
+      <c r="O36">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P36">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q36">
+        <v>30.69451532027222</v>
+      </c>
+      <c r="R36">
+        <v>276.25063788245</v>
+      </c>
+      <c r="S36">
+        <v>0.0001516738583671088</v>
+      </c>
+      <c r="T36">
+        <v>0.0001516738583671088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.5728033333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.71841</v>
+      </c>
+      <c r="I37">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="J37">
+        <v>0.001358292765118849</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N37">
+        <v>69.008144</v>
+      </c>
+      <c r="O37">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P37">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q37">
+        <v>13.17603163678222</v>
+      </c>
+      <c r="R37">
+        <v>118.58428473104</v>
+      </c>
+      <c r="S37">
+        <v>6.510803430077186E-05</v>
+      </c>
+      <c r="T37">
+        <v>6.510803430077189E-05</v>
       </c>
     </row>
   </sheetData>
